--- a/cpuv4/docs/Mas.xlsx
+++ b/cpuv4/docs/Mas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="75">
   <si>
     <t>d使うか</t>
     <rPh sb="1" eb="2">
@@ -62,259 +62,263 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Rs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Im</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>li</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>im</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mov</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmpjmp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mask</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pc(13 downto 10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pc(9 downto0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>le</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ne</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmpijmp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jmp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmpfjmp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>call</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ret</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fadd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>neg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fsub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fmul</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>finv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fsqrt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fmov</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>load</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>addri</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loadr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>im(13 downto 10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s2 (データ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>im(9 downto0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fload</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>floadr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fstore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f1 (データ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>imovetof</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fmovetoi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>write</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ledout)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ledouti)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(halt)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>subop</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Im</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>li</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>im</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>r</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>addi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>subi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mov</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>add</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sub</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cmpjmp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mask</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pc(13 downto 10)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pc(9 downto0)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>l</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>le</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ne</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cmpijmp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>jmp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cmpfjmp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>call</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ret</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fadd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>f1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>df</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>f2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>neg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fsub</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fmul</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>finv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fsqrt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fmov</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>load</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>addri</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>loadr</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>store</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>inst</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>im(13 downto 10)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s2 (データ)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>im(9 downto0)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fload</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>floadr</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fstore</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>f1 (データ)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>imovetof</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fmovetoi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>write</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ledout)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ledouti)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(halt)</t>
+    <t>op</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -670,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -697,14 +701,16 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -712,7 +718,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -720,7 +726,7 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
@@ -728,7 +734,7 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
@@ -852,13 +858,13 @@
     </row>
     <row r="4" spans="1:44">
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -885,7 +891,7 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
@@ -893,7 +899,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AE4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
@@ -911,37 +917,37 @@
     </row>
     <row r="5" spans="1:44">
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -949,7 +955,7 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
@@ -959,7 +965,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
@@ -977,16 +983,16 @@
     </row>
     <row r="6" spans="1:44">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1015,7 +1021,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
@@ -1025,7 +1031,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
@@ -1043,13 +1049,13 @@
     </row>
     <row r="7" spans="1:44">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1078,7 +1084,7 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
@@ -1088,16 +1094,16 @@
     </row>
     <row r="8" spans="1:44">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1126,7 +1132,7 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
@@ -1134,7 +1140,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
@@ -1144,16 +1150,16 @@
     </row>
     <row r="9" spans="1:44">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1182,7 +1188,7 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
@@ -1190,7 +1196,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
@@ -1200,30 +1206,30 @@
     </row>
     <row r="11" spans="1:44">
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -1231,7 +1237,7 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -1239,7 +1245,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
@@ -1247,7 +1253,7 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
@@ -1261,16 +1267,16 @@
     </row>
     <row r="12" spans="1:44">
       <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1296,16 +1302,16 @@
     </row>
     <row r="13" spans="1:44">
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1331,16 +1337,16 @@
     </row>
     <row r="14" spans="1:44">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1366,16 +1372,16 @@
     </row>
     <row r="15" spans="1:44">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1401,16 +1407,16 @@
     </row>
     <row r="16" spans="1:44">
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1436,16 +1442,16 @@
     </row>
     <row r="17" spans="2:44">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1471,7 +1477,7 @@
     </row>
     <row r="19" spans="2:44">
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1479,20 +1485,22 @@
       <c r="J19">
         <v>1</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19">
         <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
       <c r="N19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -1500,13 +1508,13 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
@@ -1516,7 +1524,7 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
@@ -1530,16 +1538,16 @@
     </row>
     <row r="20" spans="2:44">
       <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
         <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1567,16 +1575,16 @@
     </row>
     <row r="21" spans="2:44">
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1596,16 +1604,16 @@
     </row>
     <row r="22" spans="2:44">
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1625,16 +1633,16 @@
     </row>
     <row r="23" spans="2:44">
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1654,16 +1662,16 @@
     </row>
     <row r="24" spans="2:44">
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1683,16 +1691,16 @@
     </row>
     <row r="25" spans="2:44">
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1712,16 +1720,16 @@
     </row>
     <row r="26" spans="2:44">
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1741,7 +1749,7 @@
     </row>
     <row r="28" spans="2:44">
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1750,13 +1758,16 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
         <v>0</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -1769,7 +1780,7 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
@@ -1777,7 +1788,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
@@ -1785,7 +1796,7 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
@@ -1799,16 +1810,16 @@
     </row>
     <row r="29" spans="2:44">
       <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
         <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" t="s">
-        <v>31</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -1828,16 +1839,16 @@
     </row>
     <row r="30" spans="2:44">
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -1857,16 +1868,16 @@
     </row>
     <row r="31" spans="2:44">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -1886,16 +1897,16 @@
     </row>
     <row r="32" spans="2:44">
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1915,16 +1926,16 @@
     </row>
     <row r="33" spans="2:44">
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1944,16 +1955,16 @@
     </row>
     <row r="34" spans="2:44">
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1973,10 +1984,10 @@
     </row>
     <row r="36" spans="2:44">
       <c r="B36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -1985,13 +1996,13 @@
         <v>1</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2003,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
       <c r="AI36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
@@ -2023,7 +2034,7 @@
     </row>
     <row r="37" spans="2:44">
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -2032,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -2041,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -2052,37 +2063,43 @@
     </row>
     <row r="39" spans="2:44">
       <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>46</v>
+      </c>
+      <c r="P39" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q39" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
-      <c r="N39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
@@ -2090,7 +2107,7 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
@@ -2098,41 +2115,35 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
-      <c r="AQ39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="40" spans="2:44">
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2143,8 +2154,14 @@
       <c r="N40">
         <v>1</v>
       </c>
+      <c r="O40" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" t="s">
+        <v>47</v>
+      </c>
       <c r="Q40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -2152,7 +2169,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
@@ -2160,41 +2177,35 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
-      <c r="AQ40" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR40" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="41" spans="2:44">
       <c r="B41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2204,6 +2215,12 @@
       </c>
       <c r="N41">
         <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>46</v>
+      </c>
+      <c r="P41" t="s">
+        <v>47</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>7</v>
@@ -2214,7 +2231,7 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
@@ -2222,38 +2239,32 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3"/>
-      <c r="AQ41" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR41" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="42" spans="2:44">
       <c r="B42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -2263,6 +2274,12 @@
       </c>
       <c r="N42">
         <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>46</v>
+      </c>
+      <c r="P42" t="s">
+        <v>47</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>7</v>
@@ -2273,38 +2290,32 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
-      <c r="AQ42" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR42" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="43" spans="2:44">
       <c r="B43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -2314,6 +2325,12 @@
       </c>
       <c r="N43">
         <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>46</v>
+      </c>
+      <c r="P43" t="s">
+        <v>47</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>7</v>
@@ -2324,38 +2341,32 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
-      <c r="AQ43" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR43" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="44" spans="2:44">
       <c r="B44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -2365,6 +2376,12 @@
       </c>
       <c r="N44">
         <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>46</v>
+      </c>
+      <c r="P44" t="s">
+        <v>47</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>7</v>
@@ -2375,32 +2392,26 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
-      <c r="AQ44" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR44" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="46" spans="2:44">
       <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
         <v>54</v>
       </c>
-      <c r="C46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" t="s">
-        <v>55</v>
-      </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2432,7 +2443,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
@@ -2440,7 +2451,7 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
       <c r="AE46" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
@@ -2458,16 +2469,16 @@
     </row>
     <row r="47" spans="2:44">
       <c r="B47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2491,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
@@ -2499,50 +2510,58 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
+      <c r="AC47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
     </row>
     <row r="48" spans="2:44">
       <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" t="s">
-        <v>55</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48" t="s">
-        <v>58</v>
-      </c>
       <c r="Q48" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
@@ -2550,7 +2569,7 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
@@ -2558,7 +2577,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
@@ -2566,7 +2585,7 @@
       <c r="AG48" s="3"/>
       <c r="AH48" s="3"/>
       <c r="AI48" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
@@ -2580,16 +2599,16 @@
     </row>
     <row r="49" spans="2:44">
       <c r="B49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2621,7 +2640,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
@@ -2629,7 +2648,7 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AE49" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
@@ -2647,16 +2666,16 @@
     </row>
     <row r="50" spans="2:44">
       <c r="B50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2688,7 +2707,7 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
@@ -2698,16 +2717,16 @@
     </row>
     <row r="51" spans="2:44">
       <c r="B51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2739,7 +2758,7 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
@@ -2747,7 +2766,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
@@ -2755,7 +2774,7 @@
       <c r="AG51" s="3"/>
       <c r="AH51" s="3"/>
       <c r="AI51" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
@@ -2769,13 +2788,13 @@
     </row>
     <row r="52" spans="2:44">
       <c r="B52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2805,7 +2824,7 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
@@ -2823,13 +2842,13 @@
     </row>
     <row r="53" spans="2:44">
       <c r="B53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2859,7 +2878,7 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
@@ -2867,7 +2886,7 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
@@ -2877,34 +2896,34 @@
     </row>
     <row r="55" spans="2:44">
       <c r="B55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="W55" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="W55" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
@@ -2914,13 +2933,13 @@
     </row>
     <row r="56" spans="2:44">
       <c r="B56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2949,7 +2968,7 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
@@ -2959,10 +2978,10 @@
     </row>
     <row r="57" spans="2:44">
       <c r="B57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2993,10 +3012,10 @@
     </row>
     <row r="58" spans="2:44">
       <c r="B58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -3017,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL58" s="3"/>
       <c r="AM58" s="3"/>
@@ -3029,7 +3048,7 @@
     </row>
     <row r="60" spans="2:44">
       <c r="B60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -3038,16 +3057,16 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -3058,11 +3077,14 @@
     </row>
     <row r="61" spans="2:44">
       <c r="B61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="86">
+    <mergeCell ref="AC47:AH47"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q4:V4"/>
     <mergeCell ref="W4:AB4"/>
     <mergeCell ref="Q5:V5"/>
@@ -3136,7 +3158,6 @@
     <mergeCell ref="Q57:V57"/>
     <mergeCell ref="AK58:AR58"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="W2:AB2"/>
     <mergeCell ref="AC2:AH2"/>

--- a/cpuv4/docs/Mas.xlsx
+++ b/cpuv4/docs/Mas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="77">
   <si>
     <t>d使うか</t>
     <rPh sb="1" eb="2">
@@ -182,14 +182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>call</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ret</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fadd</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -319,6 +311,22 @@
   </si>
   <si>
     <t>op</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -365,12 +373,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -674,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12:Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -695,56 +706,56 @@
       </c>
     </row>
     <row r="2" spans="1:44">
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3" t="s">
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3" t="s">
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3" t="s">
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
     </row>
     <row r="3" spans="1:44">
       <c r="I3">
@@ -884,36 +895,36 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3" t="s">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AE4" s="3" t="s">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AE4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
     </row>
     <row r="5" spans="1:44">
       <c r="B5" t="s">
@@ -946,40 +957,40 @@
       <c r="N5">
         <v>1</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3" t="s">
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="3" t="s">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
     </row>
     <row r="6" spans="1:44">
       <c r="B6" t="s">
@@ -1012,40 +1023,40 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3" t="s">
+      <c r="Q6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="3" t="s">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
     </row>
     <row r="7" spans="1:44">
       <c r="B7" t="s">
@@ -1075,22 +1086,22 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3" t="s">
+      <c r="Q7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:44">
       <c r="B8" t="s">
@@ -1123,30 +1134,30 @@
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3" t="s">
+      <c r="Q8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3" t="s">
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
     </row>
     <row r="9" spans="1:44">
       <c r="B9" t="s">
@@ -1179,130 +1190,150 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3" t="s">
+      <c r="Q9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3" t="s">
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-    </row>
-    <row r="11" spans="1:44">
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
     </row>
     <row r="12" spans="1:44">
       <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
     </row>
     <row r="13" spans="1:44">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -1317,27 +1348,27 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
     </row>
     <row r="14" spans="1:44">
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1355,24 +1386,24 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
     </row>
     <row r="15" spans="1:44">
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -1384,30 +1415,30 @@
         <v>30</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
     </row>
     <row r="16" spans="1:44">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1425,24 +1456,24 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
     </row>
     <row r="17" spans="2:44">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1457,125 +1488,123 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-    </row>
-    <row r="19" spans="2:44">
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+    </row>
+    <row r="18" spans="2:44">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
     </row>
     <row r="20" spans="2:44">
       <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
     </row>
     <row r="21" spans="2:44">
       <c r="B21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -1590,21 +1619,29 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
     </row>
     <row r="22" spans="2:44">
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -1622,18 +1659,18 @@
         <v>1</v>
       </c>
       <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:44">
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -1645,24 +1682,24 @@
         <v>30</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:44">
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1680,18 +1717,18 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:44">
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -1706,21 +1743,21 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:44">
       <c r="B26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1738,108 +1775,108 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-    </row>
-    <row r="28" spans="2:44">
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+    </row>
+    <row r="27" spans="2:44">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
         <v>30</v>
       </c>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
     </row>
     <row r="29" spans="2:44">
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
     </row>
     <row r="30" spans="2:44">
       <c r="B30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -1854,21 +1891,21 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
     </row>
     <row r="31" spans="2:44">
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -1886,18 +1923,18 @@
         <v>1</v>
       </c>
       <c r="P31">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
     </row>
     <row r="32" spans="2:44">
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1909,24 +1946,24 @@
         <v>30</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
     </row>
     <row r="33" spans="2:44">
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
@@ -1944,18 +1981,18 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
     </row>
     <row r="34" spans="2:44">
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
@@ -1970,71 +2007,61 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+    </row>
+    <row r="35" spans="2:44">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
     </row>
     <row r="36" spans="2:44">
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="W36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AI36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="3"/>
-      <c r="AL36" s="3"/>
-      <c r="AM36" s="3"/>
-      <c r="AN36" s="3"/>
-      <c r="AO36" s="3"/>
-      <c r="AP36" s="3"/>
-      <c r="AQ36" s="3"/>
-      <c r="AR36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
     </row>
     <row r="37" spans="2:44">
       <c r="B37" t="s">
-        <v>41</v>
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -2052,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -2060,10 +2087,24 @@
       <c r="P37">
         <v>0</v>
       </c>
+      <c r="Q37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
     </row>
     <row r="39" spans="2:44">
       <c r="B39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -2083,49 +2124,49 @@
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="L39" s="2">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
-      <c r="N39" s="2">
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
     </row>
     <row r="40" spans="2:44">
       <c r="B40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
@@ -2155,39 +2196,39 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
     </row>
     <row r="41" spans="2:44">
       <c r="B41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
@@ -2217,39 +2258,39 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
-      <c r="AH41" s="3"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
     </row>
     <row r="42" spans="2:44">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
         <v>39</v>
@@ -2276,31 +2317,31 @@
         <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
     </row>
     <row r="43" spans="2:44">
       <c r="B43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
         <v>39</v>
@@ -2327,31 +2368,31 @@
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
     </row>
     <row r="44" spans="2:44">
       <c r="B44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
         <v>39</v>
@@ -2378,37 +2419,37 @@
         <v>1</v>
       </c>
       <c r="O44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
     </row>
     <row r="46" spans="2:44">
       <c r="B46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s">
         <v>16</v>
@@ -2434,42 +2475,42 @@
       <c r="O46">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3" t="s">
+      <c r="Q46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AE46" s="3" t="s">
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AE46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AF46" s="3"/>
-      <c r="AG46" s="3"/>
-      <c r="AH46" s="3"/>
-      <c r="AI46" s="3"/>
-      <c r="AJ46" s="3"/>
-      <c r="AK46" s="3"/>
-      <c r="AL46" s="3"/>
-      <c r="AM46" s="3"/>
-      <c r="AN46" s="3"/>
-      <c r="AO46" s="3"/>
-      <c r="AP46" s="3"/>
-      <c r="AQ46" s="3"/>
-      <c r="AR46" s="3"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="4"/>
+      <c r="AO46" s="4"/>
+      <c r="AP46" s="4"/>
+      <c r="AQ46" s="4"/>
+      <c r="AR46" s="4"/>
     </row>
     <row r="47" spans="2:44">
       <c r="B47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -2501,105 +2542,105 @@
       <c r="O47">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="Q47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3" t="s">
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3" t="s">
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-      <c r="AF47" s="3"/>
-      <c r="AG47" s="3"/>
-      <c r="AH47" s="3"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="4"/>
     </row>
     <row r="48" spans="2:44">
       <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48" t="s">
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3" t="s">
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
-      <c r="AL48" s="3"/>
-      <c r="AM48" s="3"/>
-      <c r="AN48" s="3"/>
-      <c r="AO48" s="3"/>
-      <c r="AP48" s="3"/>
-      <c r="AQ48" s="3"/>
-      <c r="AR48" s="3"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
+      <c r="AL48" s="4"/>
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="4"/>
+      <c r="AO48" s="4"/>
+      <c r="AP48" s="4"/>
+      <c r="AQ48" s="4"/>
+      <c r="AR48" s="4"/>
     </row>
     <row r="49" spans="2:44">
       <c r="B49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -2631,42 +2672,42 @@
       <c r="O49">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AE49" s="3" t="s">
+      <c r="Q49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AE49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AF49" s="3"/>
-      <c r="AG49" s="3"/>
-      <c r="AH49" s="3"/>
-      <c r="AI49" s="3"/>
-      <c r="AJ49" s="3"/>
-      <c r="AK49" s="3"/>
-      <c r="AL49" s="3"/>
-      <c r="AM49" s="3"/>
-      <c r="AN49" s="3"/>
-      <c r="AO49" s="3"/>
-      <c r="AP49" s="3"/>
-      <c r="AQ49" s="3"/>
-      <c r="AR49" s="3"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="4"/>
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="4"/>
+      <c r="AO49" s="4"/>
+      <c r="AP49" s="4"/>
+      <c r="AQ49" s="4"/>
+      <c r="AR49" s="4"/>
     </row>
     <row r="50" spans="2:44">
       <c r="B50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
@@ -2698,26 +2739,26 @@
       <c r="O50">
         <v>0</v>
       </c>
-      <c r="Q50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
+      <c r="Q50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
     </row>
     <row r="51" spans="2:44">
       <c r="B51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -2726,7 +2767,7 @@
         <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2749,46 +2790,46 @@
       <c r="O51">
         <v>0</v>
       </c>
-      <c r="Q51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3" t="s">
+      <c r="Q51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-      <c r="AF51" s="3"/>
-      <c r="AG51" s="3"/>
-      <c r="AH51" s="3"/>
-      <c r="AI51" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ51" s="3"/>
-      <c r="AK51" s="3"/>
-      <c r="AL51" s="3"/>
-      <c r="AM51" s="3"/>
-      <c r="AN51" s="3"/>
-      <c r="AO51" s="3"/>
-      <c r="AP51" s="3"/>
-      <c r="AQ51" s="3"/>
-      <c r="AR51" s="3"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="4"/>
+      <c r="AO51" s="4"/>
+      <c r="AP51" s="4"/>
+      <c r="AQ51" s="4"/>
+      <c r="AR51" s="4"/>
     </row>
     <row r="52" spans="2:44">
       <c r="B52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -2817,32 +2858,32 @@
       <c r="O52">
         <v>0</v>
       </c>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
-      <c r="AG52" s="3"/>
-      <c r="AH52" s="3"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
     </row>
     <row r="53" spans="2:44">
       <c r="B53" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
         <v>39</v>
@@ -2871,32 +2912,32 @@
       <c r="O53">
         <v>0</v>
       </c>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3" t="s">
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
-      <c r="AG53" s="3"/>
-      <c r="AH53" s="3"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
     </row>
     <row r="55" spans="2:44">
       <c r="B55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
@@ -2922,18 +2963,18 @@
       <c r="N55">
         <v>0</v>
       </c>
-      <c r="W55" s="3" t="s">
+      <c r="W55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
     </row>
     <row r="56" spans="2:44">
       <c r="B56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -2959,26 +3000,26 @@
       <c r="N56">
         <v>0</v>
       </c>
-      <c r="Q56" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3" t="s">
+      <c r="Q56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
     </row>
     <row r="57" spans="2:44">
       <c r="B57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -3001,18 +3042,18 @@
       <c r="N57">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
+      <c r="Q57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
     </row>
     <row r="58" spans="2:44">
       <c r="B58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
@@ -3035,20 +3076,20 @@
       <c r="N58">
         <v>0</v>
       </c>
-      <c r="AK58" s="3" t="s">
+      <c r="AK58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AL58" s="3"/>
-      <c r="AM58" s="3"/>
-      <c r="AN58" s="3"/>
-      <c r="AO58" s="3"/>
-      <c r="AP58" s="3"/>
-      <c r="AQ58" s="3"/>
-      <c r="AR58" s="3"/>
+      <c r="AL58" s="4"/>
+      <c r="AM58" s="4"/>
+      <c r="AN58" s="4"/>
+      <c r="AO58" s="4"/>
+      <c r="AP58" s="4"/>
+      <c r="AQ58" s="4"/>
+      <c r="AR58" s="4"/>
     </row>
     <row r="60" spans="2:44">
       <c r="B60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -3077,14 +3118,17 @@
     </row>
     <row r="61" spans="2:44">
       <c r="B61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="86">
+  <mergeCells count="87">
     <mergeCell ref="AC47:AH47"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="W10:AB10"/>
+    <mergeCell ref="AE10:AR10"/>
+    <mergeCell ref="Q37:V37"/>
     <mergeCell ref="Q4:V4"/>
     <mergeCell ref="W4:AB4"/>
     <mergeCell ref="Q5:V5"/>
@@ -3127,7 +3171,7 @@
     <mergeCell ref="W43:AB43"/>
     <mergeCell ref="W55:AB55"/>
     <mergeCell ref="W56:AB56"/>
-    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="Q29:V29"/>
     <mergeCell ref="AI48:AR48"/>
     <mergeCell ref="AI51:AR51"/>
     <mergeCell ref="Q53:V53"/>
@@ -3141,18 +3185,18 @@
     <mergeCell ref="Q49:V49"/>
     <mergeCell ref="Q50:V50"/>
     <mergeCell ref="Q51:V51"/>
-    <mergeCell ref="AI11:AR11"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="AC11:AH11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="AA19:AH19"/>
-    <mergeCell ref="AC28:AH28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="AI28:AR28"/>
+    <mergeCell ref="AI12:AR12"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="AC12:AH12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="AC29:AH29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="AI29:AR29"/>
     <mergeCell ref="AC53:AH53"/>
     <mergeCell ref="Q56:V56"/>
     <mergeCell ref="Q57:V57"/>
@@ -3163,11 +3207,9 @@
     <mergeCell ref="AC2:AH2"/>
     <mergeCell ref="AI2:AR2"/>
     <mergeCell ref="AC52:AH52"/>
-    <mergeCell ref="Q11:V11"/>
-    <mergeCell ref="AI36:AR36"/>
-    <mergeCell ref="W36:Z36"/>
+    <mergeCell ref="Q12:V12"/>
     <mergeCell ref="W51:Z51"/>
-    <mergeCell ref="AI19:AR19"/>
+    <mergeCell ref="AI20:AR20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cpuv4/docs/Mas.xlsx
+++ b/cpuv4/docs/Mas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="79">
   <si>
     <t>d使うか</t>
     <rPh sb="1" eb="2">
@@ -242,10 +242,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>inst</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>im(13 downto 10)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -327,6 +323,21 @@
   </si>
   <si>
     <t>r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store_inst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>符号拡張</t>
+    <rPh sb="0" eb="4">
+      <t>フゴウカクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あり</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -683,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR61"/>
+  <dimension ref="A1:AT62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12:Z12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="AT52" sqref="AT52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -698,26 +709,30 @@
     <col min="7" max="7" width="4.375" customWidth="1"/>
     <col min="8" max="8" width="0.625" customWidth="1"/>
     <col min="9" max="44" width="3.5" customWidth="1"/>
+    <col min="45" max="45" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:44">
+      <c r="AT1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46">
       <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4" t="s">
@@ -757,7 +772,7 @@
       <c r="AQ2" s="4"/>
       <c r="AR2" s="4"/>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:46">
       <c r="I3">
         <v>35</v>
       </c>
@@ -867,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:46">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -926,7 +941,7 @@
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:46">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -992,7 +1007,7 @@
       <c r="AQ5" s="4"/>
       <c r="AR5" s="4"/>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:46">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -1058,7 +1073,7 @@
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:46">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -1103,7 +1118,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:46">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -1159,7 +1174,7 @@
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:46">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -1215,125 +1230,111 @@
       <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
     </row>
-    <row r="10" spans="1:44">
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="4" t="s">
+    <row r="11" spans="1:46">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AT11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-    </row>
-    <row r="12" spans="1:44">
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-    </row>
-    <row r="13" spans="1:44">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AT12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -1348,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1365,10 +1366,13 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
-    </row>
-    <row r="14" spans="1:44">
+      <c r="AT13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1386,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1400,10 +1404,13 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
-    </row>
-    <row r="15" spans="1:44">
+      <c r="AT14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -1415,13 +1422,13 @@
         <v>30</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -1435,10 +1442,13 @@
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
-    </row>
-    <row r="16" spans="1:44">
+      <c r="AT15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1456,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -1470,10 +1480,13 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
-    </row>
-    <row r="17" spans="2:44">
+      <c r="AT16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:46">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1488,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -1505,106 +1518,111 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
-    </row>
-    <row r="18" spans="2:44">
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="AT17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:46">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+    </row>
+    <row r="20" spans="2:46">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-    </row>
-    <row r="20" spans="2:44">
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-    </row>
-    <row r="21" spans="2:44">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+    </row>
+    <row r="21" spans="2:46">
       <c r="B21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -1619,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -1630,18 +1648,10 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-    </row>
-    <row r="22" spans="2:44">
+    </row>
+    <row r="22" spans="2:46">
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -1659,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -1668,9 +1678,9 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" spans="2:44">
+    <row r="23" spans="2:46">
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -1682,13 +1692,13 @@
         <v>30</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -1697,9 +1707,9 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" spans="2:44">
+    <row r="24" spans="2:46">
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1717,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -1726,9 +1736,9 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" spans="2:44">
+    <row r="25" spans="2:46">
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -1743,10 +1753,10 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -1755,9 +1765,9 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
     </row>
-    <row r="26" spans="2:44">
+    <row r="26" spans="2:46">
       <c r="B26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1775,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -1784,99 +1794,99 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
     </row>
-    <row r="27" spans="2:44">
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" t="s">
+    <row r="28" spans="2:46">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-    </row>
-    <row r="29" spans="2:44">
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+    </row>
+    <row r="29" spans="2:46">
       <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
         <v>30</v>
       </c>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
-      <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-    </row>
-    <row r="30" spans="2:44">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+    </row>
+    <row r="30" spans="2:46">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -1891,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
@@ -1903,9 +1913,9 @@
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
     </row>
-    <row r="31" spans="2:44">
+    <row r="31" spans="2:46">
       <c r="B31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
@@ -1923,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
@@ -1932,9 +1942,9 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
     </row>
-    <row r="32" spans="2:44">
+    <row r="32" spans="2:46">
       <c r="B32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1946,13 +1956,13 @@
         <v>30</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
@@ -1961,9 +1971,9 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
     </row>
-    <row r="33" spans="2:44">
+    <row r="33" spans="2:46">
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
@@ -1981,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
@@ -1990,9 +2000,9 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
     </row>
-    <row r="34" spans="2:44">
+    <row r="34" spans="2:46">
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
@@ -2007,10 +2017,10 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
@@ -2019,28 +2029,7 @@
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
     </row>
-    <row r="35" spans="2:44">
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
+    <row r="35" spans="2:46">
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
@@ -2048,20 +2037,73 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
     </row>
-    <row r="36" spans="2:44">
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
-    </row>
-    <row r="37" spans="2:44">
+    <row r="36" spans="2:46">
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+    </row>
+    <row r="37" spans="2:46">
       <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
         <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>76</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -2102,7 +2144,7 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
     </row>
-    <row r="39" spans="2:44">
+    <row r="39" spans="2:46">
       <c r="B39" t="s">
         <v>40</v>
       </c>
@@ -2164,7 +2206,7 @@
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
     </row>
-    <row r="40" spans="2:44">
+    <row r="40" spans="2:46">
       <c r="B40" t="s">
         <v>46</v>
       </c>
@@ -2226,7 +2268,7 @@
       <c r="AG40" s="4"/>
       <c r="AH40" s="4"/>
     </row>
-    <row r="41" spans="2:44">
+    <row r="41" spans="2:46">
       <c r="B41" t="s">
         <v>47</v>
       </c>
@@ -2288,7 +2330,7 @@
       <c r="AG41" s="4"/>
       <c r="AH41" s="4"/>
     </row>
-    <row r="42" spans="2:44">
+    <row r="42" spans="2:46">
       <c r="B42" t="s">
         <v>48</v>
       </c>
@@ -2339,7 +2381,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="2:44">
+    <row r="43" spans="2:46">
       <c r="B43" t="s">
         <v>49</v>
       </c>
@@ -2390,7 +2432,7 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" spans="2:44">
+    <row r="44" spans="2:46">
       <c r="B44" t="s">
         <v>50</v>
       </c>
@@ -2441,7 +2483,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="46" spans="2:44">
+    <row r="46" spans="2:46">
       <c r="B46" t="s">
         <v>51</v>
       </c>
@@ -2507,8 +2549,11 @@
       <c r="AP46" s="4"/>
       <c r="AQ46" s="4"/>
       <c r="AR46" s="4"/>
-    </row>
-    <row r="47" spans="2:44">
+      <c r="AT46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="2:46">
       <c r="B47" t="s">
         <v>53</v>
       </c>
@@ -2567,7 +2612,7 @@
       <c r="AG47" s="4"/>
       <c r="AH47" s="4"/>
     </row>
-    <row r="48" spans="2:44">
+    <row r="48" spans="2:46">
       <c r="B48" t="s">
         <v>54</v>
       </c>
@@ -2598,8 +2643,8 @@
       <c r="N48">
         <v>0</v>
       </c>
-      <c r="O48" t="s">
-        <v>55</v>
+      <c r="O48">
+        <v>0</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>19</v>
@@ -2610,7 +2655,7 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
@@ -2618,7 +2663,7 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
@@ -2626,7 +2671,7 @@
       <c r="AG48" s="4"/>
       <c r="AH48" s="4"/>
       <c r="AI48" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4"/>
@@ -2637,19 +2682,22 @@
       <c r="AP48" s="4"/>
       <c r="AQ48" s="4"/>
       <c r="AR48" s="4"/>
-    </row>
-    <row r="49" spans="2:44">
+      <c r="AT48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="2:46">
       <c r="B49" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2661,19 +2709,19 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
@@ -2681,20 +2729,24 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-      <c r="AE49" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
       <c r="AF49" s="4"/>
       <c r="AG49" s="4"/>
       <c r="AH49" s="4"/>
-      <c r="AI49" s="4"/>
+      <c r="AI49" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ49" s="4"/>
       <c r="AK49" s="4"/>
       <c r="AL49" s="4"/>
@@ -2705,15 +2757,15 @@
       <c r="AQ49" s="4"/>
       <c r="AR49" s="4"/>
     </row>
-    <row r="50" spans="2:44">
+    <row r="50" spans="2:46">
       <c r="B50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
         <v>39</v>
@@ -2734,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -2755,20 +2807,36 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
-    </row>
-    <row r="51" spans="2:44">
+      <c r="AE50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="4"/>
+      <c r="AL50" s="4"/>
+      <c r="AM50" s="4"/>
+      <c r="AN50" s="4"/>
+      <c r="AO50" s="4"/>
+      <c r="AP50" s="4"/>
+      <c r="AQ50" s="4"/>
+      <c r="AR50" s="4"/>
+    </row>
+    <row r="51" spans="2:46">
       <c r="B51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
       </c>
       <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
         <v>39</v>
       </c>
-      <c r="E51" t="s">
-        <v>52</v>
-      </c>
       <c r="I51">
         <v>0</v>
       </c>
@@ -2782,10 +2850,10 @@
         <v>1</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -2799,44 +2867,27 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="4"/>
-      <c r="AF51" s="4"/>
-      <c r="AG51" s="4"/>
-      <c r="AH51" s="4"/>
-      <c r="AI51" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ51" s="4"/>
-      <c r="AK51" s="4"/>
-      <c r="AL51" s="4"/>
-      <c r="AM51" s="4"/>
-      <c r="AN51" s="4"/>
-      <c r="AO51" s="4"/>
-      <c r="AP51" s="4"/>
-      <c r="AQ51" s="4"/>
-      <c r="AR51" s="4"/>
-    </row>
-    <row r="52" spans="2:44">
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+    </row>
+    <row r="52" spans="2:46">
       <c r="B52" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
       </c>
-      <c r="G52" t="s">
+      <c r="D52" t="s">
         <v>39</v>
       </c>
+      <c r="E52" t="s">
+        <v>52</v>
+      </c>
       <c r="I52">
         <v>0</v>
       </c>
@@ -2847,50 +2898,67 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
         <v>0</v>
       </c>
-      <c r="Q52" s="4"/>
+      <c r="Q52" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
       <c r="AC52" s="4" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
       <c r="AH52" s="4"/>
-    </row>
-    <row r="53" spans="2:44">
+      <c r="AI52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="4"/>
+      <c r="AP52" s="4"/>
+      <c r="AQ52" s="4"/>
+      <c r="AR52" s="4"/>
+      <c r="AT52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="2:46">
       <c r="B53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
         <v>39</v>
       </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
       <c r="I53">
         <v>0</v>
       </c>
@@ -2901,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>1</v>
@@ -2919,7 +2987,7 @@
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53" s="4" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
@@ -2927,7 +2995,7 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
@@ -2935,46 +3003,63 @@
       <c r="AG53" s="4"/>
       <c r="AH53" s="4"/>
     </row>
-    <row r="55" spans="2:44">
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="W55" s="4" t="s">
+    <row r="54" spans="2:46">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-    </row>
-    <row r="56" spans="2:44">
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+    </row>
+    <row r="56" spans="2:46">
       <c r="B56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -2995,19 +3080,11 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
-      <c r="Q56" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
       <c r="W56" s="4" t="s">
         <v>17</v>
       </c>
@@ -3017,13 +3094,16 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="2:44">
+    <row r="57" spans="2:46">
       <c r="B57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
       </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
       <c r="I57">
         <v>0</v>
       </c>
@@ -3034,10 +3114,10 @@
         <v>1</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3050,84 +3130,130 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
-    </row>
-    <row r="58" spans="2:44">
+      <c r="W57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+    </row>
+    <row r="58" spans="2:46">
       <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+    </row>
+    <row r="59" spans="2:46">
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL59" s="4"/>
+      <c r="AM59" s="4"/>
+      <c r="AN59" s="4"/>
+      <c r="AO59" s="4"/>
+      <c r="AP59" s="4"/>
+      <c r="AQ59" s="4"/>
+      <c r="AR59" s="4"/>
+    </row>
+    <row r="61" spans="2:46">
+      <c r="B61" t="s">
         <v>68</v>
       </c>
-      <c r="C58" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="AK58" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL58" s="4"/>
-      <c r="AM58" s="4"/>
-      <c r="AN58" s="4"/>
-      <c r="AO58" s="4"/>
-      <c r="AP58" s="4"/>
-      <c r="AQ58" s="4"/>
-      <c r="AR58" s="4"/>
-    </row>
-    <row r="60" spans="2:44">
-      <c r="B60" t="s">
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:46">
+      <c r="B62" t="s">
         <v>69</v>
       </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:44">
-      <c r="B61" t="s">
-        <v>70</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="91">
+    <mergeCell ref="Q49:V49"/>
+    <mergeCell ref="W49:Z49"/>
+    <mergeCell ref="AC49:AH49"/>
+    <mergeCell ref="AI49:AR49"/>
     <mergeCell ref="AC47:AH47"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="W10:AB10"/>
-    <mergeCell ref="AE10:AR10"/>
+    <mergeCell ref="W36:AB36"/>
+    <mergeCell ref="AE36:AR36"/>
     <mergeCell ref="Q37:V37"/>
     <mergeCell ref="Q4:V4"/>
     <mergeCell ref="W4:AB4"/>
@@ -3153,10 +3279,10 @@
     <mergeCell ref="Q42:V42"/>
     <mergeCell ref="Q43:V43"/>
     <mergeCell ref="Q44:V44"/>
-    <mergeCell ref="Q52:V52"/>
-    <mergeCell ref="W52:AB52"/>
-    <mergeCell ref="W49:AB49"/>
+    <mergeCell ref="Q53:V53"/>
+    <mergeCell ref="W53:AB53"/>
     <mergeCell ref="W50:AB50"/>
+    <mergeCell ref="W51:AB51"/>
     <mergeCell ref="AC39:AH39"/>
     <mergeCell ref="AC40:AH40"/>
     <mergeCell ref="AC41:AH41"/>
@@ -3169,47 +3295,47 @@
     <mergeCell ref="W41:AB41"/>
     <mergeCell ref="W42:AB42"/>
     <mergeCell ref="W43:AB43"/>
-    <mergeCell ref="W55:AB55"/>
     <mergeCell ref="W56:AB56"/>
-    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="W57:AB57"/>
+    <mergeCell ref="Q28:V28"/>
     <mergeCell ref="AI48:AR48"/>
-    <mergeCell ref="AI51:AR51"/>
-    <mergeCell ref="Q53:V53"/>
-    <mergeCell ref="W53:AB53"/>
+    <mergeCell ref="AI52:AR52"/>
+    <mergeCell ref="Q54:V54"/>
+    <mergeCell ref="W54:AB54"/>
     <mergeCell ref="W46:AB46"/>
     <mergeCell ref="W47:AB47"/>
     <mergeCell ref="AE46:AR46"/>
-    <mergeCell ref="AE49:AR49"/>
-    <mergeCell ref="AC51:AH51"/>
+    <mergeCell ref="AE50:AR50"/>
+    <mergeCell ref="AC52:AH52"/>
     <mergeCell ref="AC48:AH48"/>
-    <mergeCell ref="Q49:V49"/>
     <mergeCell ref="Q50:V50"/>
     <mergeCell ref="Q51:V51"/>
-    <mergeCell ref="AI12:AR12"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="AC12:AH12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AC29:AH29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="AI29:AR29"/>
-    <mergeCell ref="AC53:AH53"/>
-    <mergeCell ref="Q56:V56"/>
+    <mergeCell ref="Q52:V52"/>
+    <mergeCell ref="AI11:AR11"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AC11:AH11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="AC28:AH28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="AI28:AR28"/>
+    <mergeCell ref="AC54:AH54"/>
     <mergeCell ref="Q57:V57"/>
-    <mergeCell ref="AK58:AR58"/>
+    <mergeCell ref="Q58:V58"/>
+    <mergeCell ref="AK59:AR59"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="W2:AB2"/>
     <mergeCell ref="AC2:AH2"/>
     <mergeCell ref="AI2:AR2"/>
-    <mergeCell ref="AC52:AH52"/>
-    <mergeCell ref="Q12:V12"/>
-    <mergeCell ref="W51:Z51"/>
-    <mergeCell ref="AI20:AR20"/>
+    <mergeCell ref="AC53:AH53"/>
+    <mergeCell ref="Q11:V11"/>
+    <mergeCell ref="W52:Z52"/>
+    <mergeCell ref="AI19:AR19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cpuv4/docs/Mas.xlsx
+++ b/cpuv4/docs/Mas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="80">
   <si>
     <t>d使うか</t>
     <rPh sb="1" eb="2">
@@ -338,6 +338,10 @@
   </si>
   <si>
     <t>あり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -696,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="AT52" sqref="AT52"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -940,6 +944,9 @@
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
+      <c r="AT4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:46">
       <c r="B5" t="s">
@@ -1006,6 +1013,9 @@
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
       <c r="AR5" s="4"/>
+      <c r="AT5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:46">
       <c r="B6" t="s">
@@ -1072,6 +1082,9 @@
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
+      <c r="AT6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="7" spans="1:46">
       <c r="B7" t="s">
@@ -1308,13 +1321,13 @@
         <v>30</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1346,13 +1359,13 @@
         <v>30</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1384,13 +1397,13 @@
         <v>30</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1422,13 +1435,13 @@
         <v>30</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -1460,13 +1473,13 @@
         <v>30</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -1498,13 +1511,13 @@
         <v>30</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -1597,13 +1610,13 @@
         <v>30</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -1634,13 +1647,13 @@
         <v>30</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -1663,13 +1676,13 @@
         <v>30</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -1692,13 +1705,13 @@
         <v>30</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -1721,13 +1734,13 @@
         <v>30</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -1750,13 +1763,13 @@
         <v>30</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -1779,13 +1792,13 @@
         <v>30</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -1869,13 +1882,13 @@
         <v>30</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
@@ -1898,13 +1911,13 @@
         <v>30</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
@@ -1927,13 +1940,13 @@
         <v>30</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
@@ -1956,13 +1969,13 @@
         <v>30</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
@@ -1985,13 +1998,13 @@
         <v>30</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
@@ -2014,13 +2027,13 @@
         <v>30</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>

--- a/cpuv4/docs/Mas.xlsx
+++ b/cpuv4/docs/Mas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="81">
   <si>
     <t>d使うか</t>
     <rPh sb="1" eb="2">
@@ -342,6 +342,10 @@
   </si>
   <si>
     <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -700,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1438,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -1499,7 +1503,7 @@
     </row>
     <row r="17" spans="2:46">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1514,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -1708,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -1751,7 +1755,7 @@
     </row>
     <row r="25" spans="2:46">
       <c r="B25" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -1766,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -1972,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32">
         <v>1</v>
@@ -2015,7 +2019,7 @@
     </row>
     <row r="34" spans="2:46">
       <c r="B34" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
@@ -2030,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -2709,9 +2713,6 @@
       <c r="D49" t="s">
         <v>16</v>
       </c>
-      <c r="E49" t="s">
-        <v>52</v>
-      </c>
       <c r="I49">
         <v>0</v>
       </c>
@@ -2741,12 +2742,10 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
-      <c r="W49" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="4" t="s">
@@ -2757,18 +2756,16 @@
       <c r="AF49" s="4"/>
       <c r="AG49" s="4"/>
       <c r="AH49" s="4"/>
-      <c r="AI49" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ49" s="4"/>
-      <c r="AK49" s="4"/>
-      <c r="AL49" s="4"/>
-      <c r="AM49" s="4"/>
-      <c r="AN49" s="4"/>
-      <c r="AO49" s="4"/>
-      <c r="AP49" s="4"/>
-      <c r="AQ49" s="4"/>
-      <c r="AR49" s="4"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="3"/>
+      <c r="AR49" s="3"/>
     </row>
     <row r="50" spans="2:46">
       <c r="B50" t="s">
@@ -2836,6 +2833,9 @@
       <c r="AP50" s="4"/>
       <c r="AQ50" s="4"/>
       <c r="AR50" s="4"/>
+      <c r="AT50" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="51" spans="2:46">
       <c r="B51" t="s">
@@ -3257,11 +3257,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="91">
+  <mergeCells count="89">
     <mergeCell ref="Q49:V49"/>
-    <mergeCell ref="W49:Z49"/>
     <mergeCell ref="AC49:AH49"/>
-    <mergeCell ref="AI49:AR49"/>
     <mergeCell ref="AC47:AH47"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:P2"/>

--- a/cpuv4/docs/Mas.xlsx
+++ b/cpuv4/docs/Mas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="17175" windowHeight="14595"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="8580" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="86">
   <si>
     <t>d使うか</t>
     <rPh sb="1" eb="2">
@@ -346,6 +346,53 @@
   </si>
   <si>
     <t>g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d は何かで上書きされるので注意。</t>
+    <rPh sb="3" eb="4">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sの位置に注意</t>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fの位置に注意</t>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subiができたので符号拡張はない</t>
+    <rPh sb="10" eb="14">
+      <t>フゴウカクチョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -702,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT62"/>
+  <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AU5" sqref="AU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -717,18 +764,22 @@
     <col min="7" max="7" width="4.375" customWidth="1"/>
     <col min="8" max="8" width="0.625" customWidth="1"/>
     <col min="9" max="44" width="3.5" customWidth="1"/>
-    <col min="45" max="45" width="2.5" customWidth="1"/>
+    <col min="45" max="45" width="0.875" customWidth="1"/>
+    <col min="47" max="47" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:47">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AT1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:46">
+      <c r="AU1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47">
       <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
@@ -780,7 +831,7 @@
       <c r="AQ2" s="4"/>
       <c r="AR2" s="4"/>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:47">
       <c r="I3">
         <v>35</v>
       </c>
@@ -890,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:47">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -951,8 +1002,11 @@
       <c r="AT4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:46">
+      <c r="AU4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -1021,7 +1075,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:47">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -1090,7 +1144,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:47">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -1135,7 +1189,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:47">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -1191,7 +1245,7 @@
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:47">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -1247,7 +1301,7 @@
       <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:47">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1307,11 +1361,8 @@
       <c r="AP11" s="4"/>
       <c r="AQ11" s="4"/>
       <c r="AR11" s="4"/>
-      <c r="AT11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46">
+    </row>
+    <row r="12" spans="1:47">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -1345,11 +1396,8 @@
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
-      <c r="AT12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46">
+    </row>
+    <row r="13" spans="1:47">
       <c r="B13" t="s">
         <v>31</v>
       </c>
@@ -1383,11 +1431,8 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
-      <c r="AT13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46">
+    </row>
+    <row r="14" spans="1:47">
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -1421,11 +1466,8 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
-      <c r="AT14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46">
+    </row>
+    <row r="15" spans="1:47">
       <c r="B15" t="s">
         <v>33</v>
       </c>
@@ -1459,11 +1501,8 @@
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
-      <c r="AT15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46">
+    </row>
+    <row r="16" spans="1:47">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -1497,9 +1536,6 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
-      <c r="AT16" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="17" spans="2:46">
       <c r="B17" t="s">
@@ -1535,9 +1571,6 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
-      <c r="AT17" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="19" spans="2:46">
       <c r="B19" t="s">
@@ -1599,6 +1632,9 @@
       <c r="AP19" s="4"/>
       <c r="AQ19" s="4"/>
       <c r="AR19" s="4"/>
+      <c r="AT19" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20" spans="2:46">
       <c r="B20" t="s">
@@ -1636,6 +1672,9 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
+      <c r="AT20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="21" spans="2:46">
       <c r="B21" t="s">
@@ -1665,6 +1704,9 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
+      <c r="AT21" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="2:46">
       <c r="B22" t="s">
@@ -1694,6 +1736,9 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
+      <c r="AT22" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="2:46">
       <c r="B23" t="s">
@@ -1723,6 +1768,9 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
+      <c r="AT23" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" spans="2:46">
       <c r="B24" t="s">
@@ -1752,6 +1800,9 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
+      <c r="AT24" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" spans="2:46">
       <c r="B25" t="s">
@@ -1781,6 +1832,9 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
+      <c r="AT25" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="26" spans="2:46">
       <c r="B26" t="s">
@@ -2532,6 +2586,9 @@
         <v>0</v>
       </c>
       <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
         <v>0</v>
       </c>
       <c r="Q46" s="4" t="s">
@@ -2604,6 +2661,9 @@
       <c r="O47">
         <v>0</v>
       </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
       <c r="Q47" s="4" t="s">
         <v>19</v>
       </c>
@@ -2662,6 +2722,9 @@
       </c>
       <c r="O48">
         <v>0</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>19</v>
@@ -2703,7 +2766,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="2:46">
+    <row r="49" spans="2:47">
       <c r="B49" t="s">
         <v>76</v>
       </c>
@@ -2732,6 +2795,9 @@
         <v>0</v>
       </c>
       <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
         <v>1</v>
       </c>
       <c r="Q49" s="4" t="s">
@@ -2767,7 +2833,7 @@
       <c r="AQ49" s="3"/>
       <c r="AR49" s="3"/>
     </row>
-    <row r="50" spans="2:46">
+    <row r="50" spans="2:47">
       <c r="B50" t="s">
         <v>58</v>
       </c>
@@ -2799,6 +2865,9 @@
         <v>0</v>
       </c>
       <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
         <v>0</v>
       </c>
       <c r="Q50" s="4" t="s">
@@ -2837,7 +2906,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="2:46">
+    <row r="51" spans="2:47">
       <c r="B51" t="s">
         <v>59</v>
       </c>
@@ -2869,6 +2938,9 @@
         <v>1</v>
       </c>
       <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
         <v>0</v>
       </c>
       <c r="Q51" s="4" t="s">
@@ -2888,7 +2960,7 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="2:46">
+    <row r="52" spans="2:47">
       <c r="B52" t="s">
         <v>60</v>
       </c>
@@ -2921,6 +2993,9 @@
       </c>
       <c r="O52">
         <v>0</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
       </c>
       <c r="Q52" s="4" t="s">
         <v>1</v>
@@ -2962,7 +3037,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="2:46">
+    <row r="53" spans="2:47">
       <c r="B53" t="s">
         <v>62</v>
       </c>
@@ -2991,6 +3066,9 @@
         <v>1</v>
       </c>
       <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
         <v>0</v>
       </c>
       <c r="Q53" s="4"/>
@@ -3015,8 +3093,11 @@
       <c r="AF53" s="4"/>
       <c r="AG53" s="4"/>
       <c r="AH53" s="4"/>
-    </row>
-    <row r="54" spans="2:46">
+      <c r="AU53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="2:47">
       <c r="B54" t="s">
         <v>63</v>
       </c>
@@ -3045,6 +3126,9 @@
         <v>1</v>
       </c>
       <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
         <v>0</v>
       </c>
       <c r="Q54" s="4"/>
@@ -3069,8 +3153,11 @@
       <c r="AF54" s="4"/>
       <c r="AG54" s="4"/>
       <c r="AH54" s="4"/>
-    </row>
-    <row r="56" spans="2:46">
+      <c r="AU54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="2:47">
       <c r="B56" t="s">
         <v>64</v>
       </c>
@@ -3097,6 +3184,12 @@
       </c>
       <c r="N56">
         <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
       </c>
       <c r="W56" s="4" t="s">
         <v>17</v>
@@ -3107,7 +3200,7 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="2:46">
+    <row r="57" spans="2:47">
       <c r="B57" t="s">
         <v>65</v>
       </c>
@@ -3134,6 +3227,12 @@
       </c>
       <c r="N57">
         <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
       </c>
       <c r="Q57" s="4" t="s">
         <v>1</v>
@@ -3152,7 +3251,7 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="2:46">
+    <row r="58" spans="2:47">
       <c r="B58" t="s">
         <v>66</v>
       </c>
@@ -3176,6 +3275,12 @@
       </c>
       <c r="N58">
         <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
       </c>
       <c r="Q58" s="4" t="s">
         <v>1</v>
@@ -3185,8 +3290,19 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
-    </row>
-    <row r="59" spans="2:46">
+      <c r="W58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AU58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="2:47">
       <c r="B59" t="s">
         <v>67</v>
       </c>
@@ -3211,6 +3327,20 @@
       <c r="N59">
         <v>0</v>
       </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="W59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="4"/>
       <c r="AK59" s="4" t="s">
         <v>15</v>
       </c>
@@ -3221,8 +3351,11 @@
       <c r="AP59" s="4"/>
       <c r="AQ59" s="4"/>
       <c r="AR59" s="4"/>
-    </row>
-    <row r="61" spans="2:46">
+      <c r="AU59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="2:47">
       <c r="B61" t="s">
         <v>68</v>
       </c>
@@ -3251,15 +3384,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:46">
+    <row r="62" spans="2:47">
       <c r="B62" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="89">
+  <mergeCells count="91">
+    <mergeCell ref="W59:AB59"/>
     <mergeCell ref="Q49:V49"/>
     <mergeCell ref="AC49:AH49"/>
+    <mergeCell ref="W58:AB58"/>
     <mergeCell ref="AC47:AH47"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:P2"/>

--- a/cpuv4/docs/Mas.xlsx
+++ b/cpuv4/docs/Mas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="87">
   <si>
     <t>d使うか</t>
     <rPh sb="1" eb="2">
@@ -352,19 +352,6 @@
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d は何かで上書きされるので注意。</t>
-    <rPh sb="3" eb="4">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ウワガ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>チュウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -392,6 +379,29 @@
     <t>subiができたので符号拡張はない</t>
     <rPh sb="10" eb="14">
       <t>フゴウカクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d は上書きされるので注意</t>
+    <rPh sb="3" eb="5">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行部ではliと同じ扱い</t>
+    <rPh sb="0" eb="3">
+      <t>ジッコウブ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -751,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AU5" sqref="AU5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="AH37" sqref="AH37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1003,7 +1013,7 @@
         <v>79</v>
       </c>
       <c r="AU4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:47">
@@ -2042,7 +2052,7 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
     </row>
-    <row r="33" spans="2:46">
+    <row r="33" spans="2:47">
       <c r="B33" t="s">
         <v>34</v>
       </c>
@@ -2071,7 +2081,7 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
     </row>
-    <row r="34" spans="2:46">
+    <row r="34" spans="2:47">
       <c r="B34" t="s">
         <v>80</v>
       </c>
@@ -2100,7 +2110,7 @@
       <c r="AG34" s="3"/>
       <c r="AH34" s="3"/>
     </row>
-    <row r="35" spans="2:46">
+    <row r="35" spans="2:47">
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
@@ -2108,7 +2118,7 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
     </row>
-    <row r="36" spans="2:46">
+    <row r="36" spans="2:47">
       <c r="B36" t="s">
         <v>72</v>
       </c>
@@ -2168,8 +2178,11 @@
       <c r="AP36" s="4"/>
       <c r="AQ36" s="4"/>
       <c r="AR36" s="4"/>
-    </row>
-    <row r="37" spans="2:46">
+      <c r="AU36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="2:47">
       <c r="B37" t="s">
         <v>74</v>
       </c>
@@ -2215,7 +2228,7 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
     </row>
-    <row r="39" spans="2:46">
+    <row r="39" spans="2:47">
       <c r="B39" t="s">
         <v>40</v>
       </c>
@@ -2277,7 +2290,7 @@
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
     </row>
-    <row r="40" spans="2:46">
+    <row r="40" spans="2:47">
       <c r="B40" t="s">
         <v>46</v>
       </c>
@@ -2339,7 +2352,7 @@
       <c r="AG40" s="4"/>
       <c r="AH40" s="4"/>
     </row>
-    <row r="41" spans="2:46">
+    <row r="41" spans="2:47">
       <c r="B41" t="s">
         <v>47</v>
       </c>
@@ -2401,7 +2414,7 @@
       <c r="AG41" s="4"/>
       <c r="AH41" s="4"/>
     </row>
-    <row r="42" spans="2:46">
+    <row r="42" spans="2:47">
       <c r="B42" t="s">
         <v>48</v>
       </c>
@@ -2452,7 +2465,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="2:46">
+    <row r="43" spans="2:47">
       <c r="B43" t="s">
         <v>49</v>
       </c>
@@ -2503,7 +2516,7 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" spans="2:46">
+    <row r="44" spans="2:47">
       <c r="B44" t="s">
         <v>50</v>
       </c>
@@ -2554,7 +2567,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="46" spans="2:46">
+    <row r="46" spans="2:47">
       <c r="B46" t="s">
         <v>51</v>
       </c>
@@ -2627,7 +2640,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="2:46">
+    <row r="47" spans="2:47">
       <c r="B47" t="s">
         <v>53</v>
       </c>
@@ -2689,7 +2702,7 @@
       <c r="AG47" s="4"/>
       <c r="AH47" s="4"/>
     </row>
-    <row r="48" spans="2:46">
+    <row r="48" spans="2:47">
       <c r="B48" t="s">
         <v>54</v>
       </c>
@@ -3094,7 +3107,7 @@
       <c r="AG53" s="4"/>
       <c r="AH53" s="4"/>
       <c r="AU53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="2:47">
@@ -3154,7 +3167,7 @@
       <c r="AG54" s="4"/>
       <c r="AH54" s="4"/>
       <c r="AU54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="2:47">
@@ -3299,7 +3312,7 @@
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
       <c r="AU58" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="2:47">
@@ -3352,7 +3365,7 @@
       <c r="AQ59" s="4"/>
       <c r="AR59" s="4"/>
       <c r="AU59" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="2:47">
